--- a/src/main/resources/data/BlocksList.xlsx
+++ b/src/main/resources/data/BlocksList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963B54D-3843-144E-B68D-02494DC362FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D963B54D-3843-144E-B68D-02494DC362FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63726F0D-836B-4F1A-9D02-0000333A134A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>Postal Code</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Block Number</t>
   </si>
   <si>
     <t>Street Address</t>
   </si>
   <si>
-    <t>Project Name</t>
+    <t>64 Nanyang Gardens</t>
+  </si>
+  <si>
+    <t>Project Id</t>
   </si>
 </sst>
 </file>
@@ -372,59 +372,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>310064</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2">
         <v>4</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
